--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3733,7 +3733,9 @@
       <c r="P2" s="186"/>
       <c r="Q2" s="186"/>
       <c r="R2" s="187"/>
-      <c r="S2" s="191"/>
+      <c r="S2" s="90" t="str">
+        <v>大学院環境生命自然科学研究科</v>
+      </c>
       <c r="T2" s="192"/>
       <c r="U2" s="192"/>
       <c r="V2" s="192"/>
@@ -3754,7 +3756,9 @@
       <c r="B3" s="203"/>
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="205"/>
+      <c r="E3" s="90" t="str">
+        <v>TA0</v>
+      </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
       <c r="H3" s="206"/>
@@ -3770,7 +3774,9 @@
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
-      <c r="S3" s="194"/>
+      <c r="S3" s="90" t="str">
+        <v>50M23000</v>
+      </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
       <c r="V3" s="195"/>
@@ -3805,7 +3811,9 @@
       <c r="P4" s="198"/>
       <c r="Q4" s="198"/>
       <c r="R4" s="199"/>
-      <c r="S4" s="200"/>
+      <c r="S4" s="90" t="str">
+        <v>1</v>
+      </c>
       <c r="T4" s="201"/>
       <c r="U4" s="92"/>
       <c r="V4" s="93"/>
@@ -3868,7 +3876,9 @@
       <c r="P6" s="186"/>
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
-      <c r="S6" s="223"/>
+      <c r="S6" s="90" t="str">
+        <v xml:space="preserve">Teacher0  Teacher2  Teacher1  </v>
+      </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
       <c r="V6" s="224"/>
@@ -3957,7 +3967,9 @@
       <c r="B9" s="226"/>
       <c r="C9" s="226"/>
       <c r="D9" s="227"/>
-      <c r="E9" s="222"/>
+      <c r="E9" s="90" t="str">
+        <v>TA</v>
+      </c>
       <c r="F9" s="189"/>
       <c r="G9" s="189"/>
       <c r="H9" s="189"/>
@@ -4263,8 +4275,12 @@
       <c r="X16" s="150"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="38"/>
+      <c r="AA16" s="103">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="103">
+        <v>5</v>
+      </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -4381,9 +4397,15 @@
       <c r="S18" s="22"/>
       <c r="T18" s="33"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
+      <c r="V18" s="103">
+        <v>233</v>
+      </c>
+      <c r="W18" s="103">
+        <v>100</v>
+      </c>
+      <c r="X18" s="103">
+        <v>12</v>
+      </c>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="33"/>
@@ -4489,7 +4511,9 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="38"/>
+      <c r="N20" s="103">
+        <v>50</v>
+      </c>
       <c r="O20" s="37"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -4614,10 +4638,14 @@
       <c r="T22" s="33"/>
       <c r="U22" s="38"/>
       <c r="V22" s="134"/>
-      <c r="W22" s="22"/>
+      <c r="W22" s="103">
+        <v>5</v>
+      </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
+      <c r="Z22" s="103">
+        <v>65</v>
+      </c>
       <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>
     </row>
@@ -5062,7 +5090,9 @@
     <row r="32" spans="1:28" s="103" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="154"/>
       <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
+      <c r="C32" s="103">
+        <v>200</v>
+      </c>
       <c r="D32" s="150"/>
       <c r="E32" s="150"/>
       <c r="F32" s="156"/>
@@ -5896,7 +5926,9 @@
       <c r="N48" s="38"/>
       <c r="O48" s="155"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
+      <c r="Q48" s="103">
+        <v>30</v>
+      </c>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="33"/>
@@ -6135,7 +6167,9 @@
       <c r="U52" s="38"/>
       <c r="V52" s="101"/>
       <c r="W52" s="102"/>
-      <c r="X52" s="102"/>
+      <c r="X52" s="103">
+        <v>200</v>
+      </c>
       <c r="Y52" s="102"/>
       <c r="Z52" s="102"/>
       <c r="AA52" s="102"/>
@@ -6336,7 +6370,9 @@
       <c r="D56" s="82"/>
       <c r="E56" s="33"/>
       <c r="F56" s="156"/>
-      <c r="G56" s="157"/>
+      <c r="G56" s="103">
+        <v>100</v>
+      </c>
       <c r="H56" s="119"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -6398,7 +6434,9 @@
       <c r="F58" s="148"/>
       <c r="G58" s="122"/>
       <c r="H58" s="133"/>
-      <c r="I58" s="148"/>
+      <c r="I58" s="103">
+        <v>20</v>
+      </c>
       <c r="J58" s="148"/>
       <c r="K58" s="148"/>
       <c r="L58" s="148"/>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>TA0</v>
+        <v>TA2</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>50M23000</v>
+        <v>50M23002</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v xml:space="preserve">Teacher0  Teacher2  Teacher1  </v>
+        <v/>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -4275,12 +4275,8 @@
       <c r="X16" s="150"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="103">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="103">
-        <v>5</v>
-      </c>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="38"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -4397,15 +4393,9 @@
       <c r="S18" s="22"/>
       <c r="T18" s="33"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="103">
-        <v>233</v>
-      </c>
-      <c r="W18" s="103">
-        <v>100</v>
-      </c>
-      <c r="X18" s="103">
-        <v>12</v>
-      </c>
+      <c r="V18" s="37"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="33"/>
@@ -4511,9 +4501,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="103">
-        <v>50</v>
-      </c>
+      <c r="N20" s="38"/>
       <c r="O20" s="37"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -4638,14 +4626,10 @@
       <c r="T22" s="33"/>
       <c r="U22" s="38"/>
       <c r="V22" s="134"/>
-      <c r="W22" s="103">
-        <v>5</v>
-      </c>
+      <c r="W22" s="22"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="22"/>
-      <c r="Z22" s="103">
-        <v>65</v>
-      </c>
+      <c r="Z22" s="22"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>
     </row>
@@ -5090,9 +5074,7 @@
     <row r="32" spans="1:28" s="103" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="154"/>
       <c r="B32" s="150"/>
-      <c r="C32" s="103">
-        <v>200</v>
-      </c>
+      <c r="C32" s="150"/>
       <c r="D32" s="150"/>
       <c r="E32" s="150"/>
       <c r="F32" s="156"/>
@@ -5926,9 +5908,7 @@
       <c r="N48" s="38"/>
       <c r="O48" s="155"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="103">
-        <v>30</v>
-      </c>
+      <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="33"/>
@@ -6167,9 +6147,7 @@
       <c r="U52" s="38"/>
       <c r="V52" s="101"/>
       <c r="W52" s="102"/>
-      <c r="X52" s="103">
-        <v>200</v>
-      </c>
+      <c r="X52" s="102"/>
       <c r="Y52" s="102"/>
       <c r="Z52" s="102"/>
       <c r="AA52" s="102"/>
@@ -6370,9 +6348,7 @@
       <c r="D56" s="82"/>
       <c r="E56" s="33"/>
       <c r="F56" s="156"/>
-      <c r="G56" s="103">
-        <v>100</v>
-      </c>
+      <c r="G56" s="157"/>
       <c r="H56" s="119"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -6434,9 +6410,7 @@
       <c r="F58" s="148"/>
       <c r="G58" s="122"/>
       <c r="H58" s="133"/>
-      <c r="I58" s="103">
-        <v>20</v>
-      </c>
+      <c r="I58" s="148"/>
       <c r="J58" s="148"/>
       <c r="K58" s="148"/>
       <c r="L58" s="148"/>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>TA2</v>
+        <v>TA0</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>50M23002</v>
+        <v>50M23000</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v/>
+        <v xml:space="preserve">Teacher0  Teacher2  Teacher1  </v>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -4275,8 +4275,12 @@
       <c r="X16" s="150"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="38"/>
+      <c r="AA16" s="103">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="103">
+        <v>5</v>
+      </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -4393,9 +4397,15 @@
       <c r="S18" s="22"/>
       <c r="T18" s="33"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
+      <c r="V18" s="103">
+        <v>233</v>
+      </c>
+      <c r="W18" s="103">
+        <v>100</v>
+      </c>
+      <c r="X18" s="103">
+        <v>12</v>
+      </c>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="33"/>
@@ -4501,7 +4511,9 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="38"/>
+      <c r="N20" s="103">
+        <v>50</v>
+      </c>
       <c r="O20" s="37"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -4626,10 +4638,14 @@
       <c r="T22" s="33"/>
       <c r="U22" s="38"/>
       <c r="V22" s="134"/>
-      <c r="W22" s="22"/>
+      <c r="W22" s="103">
+        <v>5</v>
+      </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
+      <c r="Z22" s="103">
+        <v>65</v>
+      </c>
       <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>
     </row>
@@ -5074,7 +5090,9 @@
     <row r="32" spans="1:28" s="103" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="154"/>
       <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
+      <c r="C32" s="103">
+        <v>200</v>
+      </c>
       <c r="D32" s="150"/>
       <c r="E32" s="150"/>
       <c r="F32" s="156"/>
@@ -5908,7 +5926,9 @@
       <c r="N48" s="38"/>
       <c r="O48" s="155"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
+      <c r="Q48" s="103">
+        <v>30</v>
+      </c>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="33"/>
@@ -6147,7 +6167,9 @@
       <c r="U52" s="38"/>
       <c r="V52" s="101"/>
       <c r="W52" s="102"/>
-      <c r="X52" s="102"/>
+      <c r="X52" s="103">
+        <v>200</v>
+      </c>
       <c r="Y52" s="102"/>
       <c r="Z52" s="102"/>
       <c r="AA52" s="102"/>
@@ -6348,7 +6370,9 @@
       <c r="D56" s="82"/>
       <c r="E56" s="33"/>
       <c r="F56" s="156"/>
-      <c r="G56" s="157"/>
+      <c r="G56" s="103">
+        <v>100</v>
+      </c>
       <c r="H56" s="119"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -6410,7 +6434,9 @@
       <c r="F58" s="148"/>
       <c r="G58" s="122"/>
       <c r="H58" s="133"/>
-      <c r="I58" s="148"/>
+      <c r="I58" s="103">
+        <v>20</v>
+      </c>
       <c r="J58" s="148"/>
       <c r="K58" s="148"/>
       <c r="L58" s="148"/>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3734,7 +3734,7 @@
       <c r="Q2" s="186"/>
       <c r="R2" s="187"/>
       <c r="S2" s="90" t="str">
-        <v>大学院環境生命自然科学研究科</v>
+        <v>山内研究室研究室</v>
       </c>
       <c r="T2" s="192"/>
       <c r="U2" s="192"/>
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>TA0</v>
+        <v>ダミー君</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>50M23000</v>
+        <v>00000000</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3812,7 +3812,7 @@
       <c r="Q4" s="198"/>
       <c r="R4" s="199"/>
       <c r="S4" s="90" t="str">
-        <v>1</v>
+        <v>なし</v>
       </c>
       <c r="T4" s="201"/>
       <c r="U4" s="92"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v xml:space="preserve">Teacher0  Teacher2  Teacher1  </v>
+        <v xml:space="preserve">林  後藤  後藤  後藤  後藤  乃村  乃村  相田  右田  山内  山内  乃村  山内  乃村  山内  林  Zeynep  高橋  諸岡  山内  高橋  竹  </v>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -3968,7 +3968,7 @@
       <c r="C9" s="226"/>
       <c r="D9" s="227"/>
       <c r="E9" s="90" t="str">
-        <v>TA</v>
+        <v>SA</v>
       </c>
       <c r="F9" s="189"/>
       <c r="G9" s="189"/>
@@ -4275,12 +4275,8 @@
       <c r="X16" s="150"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="103">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="103">
-        <v>5</v>
-      </c>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="38"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -4397,19 +4393,15 @@
       <c r="S18" s="22"/>
       <c r="T18" s="33"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="103">
-        <v>233</v>
-      </c>
-      <c r="W18" s="103">
-        <v>100</v>
-      </c>
-      <c r="X18" s="103">
-        <v>12</v>
-      </c>
+      <c r="V18" s="37"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="33"/>
-      <c r="AB18" s="38"/>
+      <c r="AB18" s="103">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:28" customFormat="false" ht="15" customHeight="1">
       <c r="A19" s="55">
@@ -4511,9 +4503,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="103">
-        <v>50</v>
-      </c>
+      <c r="N20" s="38"/>
       <c r="O20" s="37"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -4638,14 +4628,10 @@
       <c r="T22" s="33"/>
       <c r="U22" s="38"/>
       <c r="V22" s="134"/>
-      <c r="W22" s="103">
-        <v>5</v>
-      </c>
+      <c r="W22" s="22"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="22"/>
-      <c r="Z22" s="103">
-        <v>65</v>
-      </c>
+      <c r="Z22" s="22"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>
     </row>
@@ -5090,9 +5076,7 @@
     <row r="32" spans="1:28" s="103" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="154"/>
       <c r="B32" s="150"/>
-      <c r="C32" s="103">
-        <v>200</v>
-      </c>
+      <c r="C32" s="150"/>
       <c r="D32" s="150"/>
       <c r="E32" s="150"/>
       <c r="F32" s="156"/>
@@ -5926,9 +5910,7 @@
       <c r="N48" s="38"/>
       <c r="O48" s="155"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="103">
-        <v>30</v>
-      </c>
+      <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="33"/>
@@ -6167,9 +6149,7 @@
       <c r="U52" s="38"/>
       <c r="V52" s="101"/>
       <c r="W52" s="102"/>
-      <c r="X52" s="103">
-        <v>200</v>
-      </c>
+      <c r="X52" s="102"/>
       <c r="Y52" s="102"/>
       <c r="Z52" s="102"/>
       <c r="AA52" s="102"/>
@@ -6370,9 +6350,7 @@
       <c r="D56" s="82"/>
       <c r="E56" s="33"/>
       <c r="F56" s="156"/>
-      <c r="G56" s="103">
-        <v>100</v>
-      </c>
+      <c r="G56" s="157"/>
       <c r="H56" s="119"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -6434,9 +6412,7 @@
       <c r="F58" s="148"/>
       <c r="G58" s="122"/>
       <c r="H58" s="133"/>
-      <c r="I58" s="103">
-        <v>20</v>
-      </c>
+      <c r="I58" s="148"/>
       <c r="J58" s="148"/>
       <c r="K58" s="148"/>
       <c r="L58" s="148"/>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3734,7 +3734,7 @@
       <c r="Q2" s="186"/>
       <c r="R2" s="187"/>
       <c r="S2" s="90" t="str">
-        <v>大学院環境生命自然科学研究科</v>
+        <v>山内研究室研究室</v>
       </c>
       <c r="T2" s="192"/>
       <c r="U2" s="192"/>
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>TA0</v>
+        <v>ダミー君</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>50M23000</v>
+        <v>00000000</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3812,7 +3812,7 @@
       <c r="Q4" s="198"/>
       <c r="R4" s="199"/>
       <c r="S4" s="90" t="str">
-        <v>1</v>
+        <v>なし</v>
       </c>
       <c r="T4" s="201"/>
       <c r="U4" s="92"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v xml:space="preserve">Teacher0  Teacher2  Teacher1  </v>
+        <v/>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -3968,7 +3968,7 @@
       <c r="C9" s="226"/>
       <c r="D9" s="227"/>
       <c r="E9" s="90" t="str">
-        <v>TA</v>
+        <v>SA</v>
       </c>
       <c r="F9" s="189"/>
       <c r="G9" s="189"/>
@@ -4275,12 +4275,8 @@
       <c r="X16" s="150"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="103">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="103">
-        <v>5</v>
-      </c>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="38"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -4397,15 +4393,9 @@
       <c r="S18" s="22"/>
       <c r="T18" s="33"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="103">
-        <v>233</v>
-      </c>
-      <c r="W18" s="103">
-        <v>100</v>
-      </c>
-      <c r="X18" s="103">
-        <v>12</v>
-      </c>
+      <c r="V18" s="37"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="33"/>
@@ -4511,9 +4501,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="103">
-        <v>50</v>
-      </c>
+      <c r="N20" s="38"/>
       <c r="O20" s="37"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -4638,14 +4626,10 @@
       <c r="T22" s="33"/>
       <c r="U22" s="38"/>
       <c r="V22" s="134"/>
-      <c r="W22" s="103">
-        <v>5</v>
-      </c>
+      <c r="W22" s="22"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="22"/>
-      <c r="Z22" s="103">
-        <v>65</v>
-      </c>
+      <c r="Z22" s="22"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>
     </row>
@@ -5090,9 +5074,7 @@
     <row r="32" spans="1:28" s="103" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="154"/>
       <c r="B32" s="150"/>
-      <c r="C32" s="103">
-        <v>200</v>
-      </c>
+      <c r="C32" s="150"/>
       <c r="D32" s="150"/>
       <c r="E32" s="150"/>
       <c r="F32" s="156"/>
@@ -5926,9 +5908,7 @@
       <c r="N48" s="38"/>
       <c r="O48" s="155"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="103">
-        <v>30</v>
-      </c>
+      <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="33"/>
@@ -6167,9 +6147,7 @@
       <c r="U52" s="38"/>
       <c r="V52" s="101"/>
       <c r="W52" s="102"/>
-      <c r="X52" s="103">
-        <v>200</v>
-      </c>
+      <c r="X52" s="102"/>
       <c r="Y52" s="102"/>
       <c r="Z52" s="102"/>
       <c r="AA52" s="102"/>
@@ -6370,9 +6348,7 @@
       <c r="D56" s="82"/>
       <c r="E56" s="33"/>
       <c r="F56" s="156"/>
-      <c r="G56" s="103">
-        <v>100</v>
-      </c>
+      <c r="G56" s="157"/>
       <c r="H56" s="119"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -6434,9 +6410,7 @@
       <c r="F58" s="148"/>
       <c r="G58" s="122"/>
       <c r="H58" s="133"/>
-      <c r="I58" s="103">
-        <v>20</v>
-      </c>
+      <c r="I58" s="148"/>
       <c r="J58" s="148"/>
       <c r="K58" s="148"/>
       <c r="L58" s="148"/>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3734,7 +3734,7 @@
       <c r="Q2" s="186"/>
       <c r="R2" s="187"/>
       <c r="S2" s="90" t="str">
-        <v>山内研究室研究室</v>
+        <v>大学院環境生命自然科学研究科</v>
       </c>
       <c r="T2" s="192"/>
       <c r="U2" s="192"/>
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>ダミー君</v>
+        <v>TA0</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>00000000</v>
+        <v>50M23000</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3812,7 +3812,7 @@
       <c r="Q4" s="198"/>
       <c r="R4" s="199"/>
       <c r="S4" s="90" t="str">
-        <v>なし</v>
+        <v>1</v>
       </c>
       <c r="T4" s="201"/>
       <c r="U4" s="92"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v xml:space="preserve">林  後藤  後藤  後藤  後藤  乃村  乃村  相田  右田  山内  山内  乃村  山内  乃村  山内  林  Zeynep  高橋  諸岡  山内  高橋  竹  </v>
+        <v xml:space="preserve">Teacher0  </v>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -3968,7 +3968,7 @@
       <c r="C9" s="226"/>
       <c r="D9" s="227"/>
       <c r="E9" s="90" t="str">
-        <v>SA</v>
+        <v>TA</v>
       </c>
       <c r="F9" s="189"/>
       <c r="G9" s="189"/>
@@ -4275,7 +4275,9 @@
       <c r="X16" s="150"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="33"/>
+      <c r="AA16" s="103">
+        <v>4</v>
+      </c>
       <c r="AB16" s="38"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -4397,11 +4399,11 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
+      <c r="Z18" s="103">
+        <v>20</v>
+      </c>
       <c r="AA18" s="33"/>
-      <c r="AB18" s="103">
-        <v>2</v>
-      </c>
+      <c r="AB18" s="38"/>
     </row>
     <row r="19" spans="1:28" customFormat="false" ht="15" customHeight="1">
       <c r="A19" s="55">
@@ -4511,12 +4513,16 @@
       <c r="S20" s="12"/>
       <c r="T20" s="33"/>
       <c r="U20" s="38"/>
-      <c r="V20" s="133"/>
+      <c r="V20" s="103">
+        <v>65</v>
+      </c>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="22"/>
       <c r="Z20" s="168"/>
-      <c r="AA20" s="33"/>
+      <c r="AA20" s="103">
+        <v>49</v>
+      </c>
       <c r="AB20" s="38"/>
     </row>
     <row r="21" spans="1:28" customFormat="false" ht="15" customHeight="1">

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>TA0</v>
+        <v>TA1</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>50M23000</v>
+        <v>50M23001</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -4275,9 +4275,7 @@
       <c r="X16" s="150"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="103">
-        <v>4</v>
-      </c>
+      <c r="AA16" s="33"/>
       <c r="AB16" s="38"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -4399,9 +4397,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="103">
-        <v>20</v>
-      </c>
+      <c r="Z18" s="12"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="38"/>
     </row>
@@ -4513,16 +4509,14 @@
       <c r="S20" s="12"/>
       <c r="T20" s="33"/>
       <c r="U20" s="38"/>
-      <c r="V20" s="103">
-        <v>65</v>
-      </c>
+      <c r="V20" s="133"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
+      <c r="X20" s="103">
+        <v>23</v>
+      </c>
       <c r="Y20" s="22"/>
       <c r="Z20" s="168"/>
-      <c r="AA20" s="103">
-        <v>49</v>
-      </c>
+      <c r="AA20" s="33"/>
       <c r="AB20" s="38"/>
     </row>
     <row r="21" spans="1:28" customFormat="false" ht="15" customHeight="1">

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>TA1</v>
+        <v>TA0</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>50M23001</v>
+        <v>50M23000</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v xml:space="preserve">Teacher0  </v>
+        <v xml:space="preserve">Teacher1  Teacher2  </v>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -4382,7 +4382,9 @@
       <c r="H18" s="133"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="103">
+        <v>12</v>
+      </c>
       <c r="L18" s="22"/>
       <c r="M18" s="33"/>
       <c r="N18" s="38"/>
@@ -4397,7 +4399,9 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
+      <c r="Z18" s="103">
+        <v>35</v>
+      </c>
       <c r="AA18" s="33"/>
       <c r="AB18" s="38"/>
     </row>
@@ -4512,11 +4516,17 @@
       <c r="V20" s="133"/>
       <c r="W20" s="12"/>
       <c r="X20" s="103">
-        <v>23</v>
-      </c>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="168"/>
-      <c r="AA20" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="Y20" s="103">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="103">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="103">
+        <v>3</v>
+      </c>
       <c r="AB20" s="38"/>
     </row>
     <row r="21" spans="1:28" customFormat="false" ht="15" customHeight="1">
@@ -4630,9 +4640,15 @@
       <c r="V22" s="134"/>
       <c r="W22" s="22"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="33"/>
+      <c r="Y22" s="103">
+        <v>13</v>
+      </c>
+      <c r="Z22" s="103">
+        <v>19</v>
+      </c>
+      <c r="AA22" s="103">
+        <v>16</v>
+      </c>
       <c r="AB22" s="38"/>
     </row>
     <row r="23" spans="1:28" customFormat="false" ht="15" customHeight="1">
@@ -4735,7 +4751,9 @@
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+      <c r="Z24" s="103">
+        <v>11</v>
+      </c>
       <c r="AA24" s="33"/>
       <c r="AB24" s="157"/>
     </row>
@@ -4793,7 +4811,9 @@
       <c r="S26" s="148"/>
       <c r="T26" s="148"/>
       <c r="U26" s="122"/>
-      <c r="V26" s="153"/>
+      <c r="V26" s="103">
+        <v>4</v>
+      </c>
       <c r="W26" s="148"/>
       <c r="X26" s="148"/>
       <c r="Y26" s="148"/>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -4254,7 +4254,9 @@
       <c r="C16" s="102"/>
       <c r="D16" s="118"/>
       <c r="E16" s="118"/>
-      <c r="F16" s="163"/>
+      <c r="F16" s="103">
+        <v>150</v>
+      </c>
       <c r="G16" s="165"/>
       <c r="H16" s="173"/>
       <c r="I16" s="175"/>
@@ -4516,7 +4518,7 @@
       <c r="V20" s="133"/>
       <c r="W20" s="12"/>
       <c r="X20" s="103">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="Y20" s="103">
         <v>12</v>
@@ -6390,7 +6392,9 @@
       <c r="X56" s="102"/>
       <c r="Y56" s="102"/>
       <c r="Z56" s="102"/>
-      <c r="AA56" s="102"/>
+      <c r="AA56" s="103">
+        <v>200</v>
+      </c>
       <c r="AB56" s="107"/>
     </row>
     <row r="57" spans="1:28" customFormat="false" ht="15" customHeight="1">

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -4746,7 +4746,9 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
+      <c r="S24" s="103">
+        <v>100</v>
+      </c>
       <c r="T24" s="148"/>
       <c r="U24" s="151"/>
       <c r="V24" s="37"/>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>TA0</v>
+        <v>内山 勝善</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>50M23000</v>
+        <v>43M21414</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v xml:space="preserve">Teacher1  Teacher2  </v>
+        <v/>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -4254,9 +4254,7 @@
       <c r="C16" s="102"/>
       <c r="D16" s="118"/>
       <c r="E16" s="118"/>
-      <c r="F16" s="103">
-        <v>150</v>
-      </c>
+      <c r="F16" s="163"/>
       <c r="G16" s="165"/>
       <c r="H16" s="173"/>
       <c r="I16" s="175"/>
@@ -4384,9 +4382,7 @@
       <c r="H18" s="133"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="103">
-        <v>12</v>
-      </c>
+      <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="33"/>
       <c r="N18" s="38"/>
@@ -4401,9 +4397,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="103">
-        <v>35</v>
-      </c>
+      <c r="Z18" s="12"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="38"/>
     </row>
@@ -4517,18 +4511,10 @@
       <c r="U20" s="38"/>
       <c r="V20" s="133"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="103">
-        <v>200</v>
-      </c>
-      <c r="Y20" s="103">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="103">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="103">
-        <v>3</v>
-      </c>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="33"/>
       <c r="AB20" s="38"/>
     </row>
     <row r="21" spans="1:28" customFormat="false" ht="15" customHeight="1">
@@ -4642,15 +4628,9 @@
       <c r="V22" s="134"/>
       <c r="W22" s="22"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="103">
-        <v>13</v>
-      </c>
-      <c r="Z22" s="103">
-        <v>19</v>
-      </c>
-      <c r="AA22" s="103">
-        <v>16</v>
-      </c>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>
     </row>
     <row r="23" spans="1:28" customFormat="false" ht="15" customHeight="1">
@@ -4746,18 +4726,14 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="148"/>
-      <c r="S24" s="103">
-        <v>100</v>
-      </c>
+      <c r="S24" s="148"/>
       <c r="T24" s="148"/>
       <c r="U24" s="151"/>
       <c r="V24" s="37"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="103">
-        <v>11</v>
-      </c>
+      <c r="Z24" s="12"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="157"/>
     </row>
@@ -4815,9 +4791,7 @@
       <c r="S26" s="148"/>
       <c r="T26" s="148"/>
       <c r="U26" s="122"/>
-      <c r="V26" s="103">
-        <v>4</v>
-      </c>
+      <c r="V26" s="153"/>
       <c r="W26" s="148"/>
       <c r="X26" s="148"/>
       <c r="Y26" s="148"/>
@@ -6394,9 +6368,7 @@
       <c r="X56" s="102"/>
       <c r="Y56" s="102"/>
       <c r="Z56" s="102"/>
-      <c r="AA56" s="103">
-        <v>200</v>
-      </c>
+      <c r="AA56" s="102"/>
       <c r="AB56" s="107"/>
     </row>
     <row r="57" spans="1:28" customFormat="false" ht="15" customHeight="1">

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v/>
+        <v xml:space="preserve">TEST  </v>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -4515,7 +4515,9 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="168"/>
       <c r="AA20" s="33"/>
-      <c r="AB20" s="38"/>
+      <c r="AB20" s="103">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:28" customFormat="false" ht="15" customHeight="1">
       <c r="A21" s="54">

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>TA0</v>
+        <v>TA1</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>50M23000</v>
+        <v>50M23001</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v xml:space="preserve">Teacher1  Teacher2  </v>
+        <v xml:space="preserve">Teacher0  </v>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -4254,9 +4254,7 @@
       <c r="C16" s="102"/>
       <c r="D16" s="118"/>
       <c r="E16" s="118"/>
-      <c r="F16" s="103">
-        <v>150</v>
-      </c>
+      <c r="F16" s="163"/>
       <c r="G16" s="165"/>
       <c r="H16" s="173"/>
       <c r="I16" s="175"/>
@@ -4384,9 +4382,7 @@
       <c r="H18" s="133"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="103">
-        <v>12</v>
-      </c>
+      <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="33"/>
       <c r="N18" s="38"/>
@@ -4401,9 +4397,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="103">
-        <v>35</v>
-      </c>
+      <c r="Z18" s="12"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="38"/>
     </row>
@@ -4517,18 +4511,12 @@
       <c r="U20" s="38"/>
       <c r="V20" s="133"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="103">
-        <v>200</v>
-      </c>
+      <c r="X20" s="12"/>
       <c r="Y20" s="103">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="103">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="103">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="33"/>
       <c r="AB20" s="38"/>
     </row>
     <row r="21" spans="1:28" customFormat="false" ht="15" customHeight="1">
@@ -4642,15 +4630,9 @@
       <c r="V22" s="134"/>
       <c r="W22" s="22"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="103">
-        <v>13</v>
-      </c>
-      <c r="Z22" s="103">
-        <v>19</v>
-      </c>
-      <c r="AA22" s="103">
-        <v>16</v>
-      </c>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>
     </row>
     <row r="23" spans="1:28" customFormat="false" ht="15" customHeight="1">
@@ -4746,18 +4728,14 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="148"/>
-      <c r="S24" s="103">
-        <v>100</v>
-      </c>
+      <c r="S24" s="148"/>
       <c r="T24" s="148"/>
       <c r="U24" s="151"/>
       <c r="V24" s="37"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="103">
-        <v>11</v>
-      </c>
+      <c r="Z24" s="12"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="157"/>
     </row>
@@ -4815,9 +4793,7 @@
       <c r="S26" s="148"/>
       <c r="T26" s="148"/>
       <c r="U26" s="122"/>
-      <c r="V26" s="103">
-        <v>4</v>
-      </c>
+      <c r="V26" s="153"/>
       <c r="W26" s="148"/>
       <c r="X26" s="148"/>
       <c r="Y26" s="148"/>
@@ -6394,9 +6370,7 @@
       <c r="X56" s="102"/>
       <c r="Y56" s="102"/>
       <c r="Z56" s="102"/>
-      <c r="AA56" s="103">
-        <v>200</v>
-      </c>
+      <c r="AA56" s="102"/>
       <c r="AB56" s="107"/>
     </row>
     <row r="57" spans="1:28" customFormat="false" ht="15" customHeight="1">

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -4515,9 +4515,7 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="168"/>
       <c r="AA20" s="33"/>
-      <c r="AB20" s="103">
-        <v>10</v>
-      </c>
+      <c r="AB20" s="38"/>
     </row>
     <row r="21" spans="1:28" customFormat="false" ht="15" customHeight="1">
       <c r="A21" s="54">
@@ -4630,7 +4628,9 @@
       <c r="V22" s="134"/>
       <c r="W22" s="22"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="22"/>
+      <c r="Y22" s="103">
+        <v>10</v>
+      </c>
       <c r="Z22" s="22"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>内山 勝善</v>
+        <v>高田 友紀</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>43M21414</v>
+        <v>43M21437</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v xml:space="preserve">TEST  </v>
+        <v xml:space="preserve">林  </v>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -4628,10 +4628,10 @@
       <c r="V22" s="134"/>
       <c r="W22" s="22"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="103">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="103">
+        <v>1</v>
+      </c>
       <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>
     </row>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -3757,7 +3757,7 @@
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="90" t="str">
-        <v>高田 友紀</v>
+        <v>内山 勝善</v>
       </c>
       <c r="F3" s="206"/>
       <c r="G3" s="206"/>
@@ -3775,7 +3775,7 @@
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
       <c r="S3" s="90" t="str">
-        <v>43M21437</v>
+        <v>43M21414</v>
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="195"/>
@@ -3877,7 +3877,7 @@
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
       <c r="S6" s="90" t="str">
-        <v xml:space="preserve">林  </v>
+        <v xml:space="preserve">後藤  </v>
       </c>
       <c r="T6" s="224"/>
       <c r="U6" s="224"/>
@@ -4629,9 +4629,7 @@
       <c r="W22" s="22"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="22"/>
-      <c r="Z22" s="103">
-        <v>1</v>
-      </c>
+      <c r="Z22" s="22"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="38"/>
     </row>

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -1457,7 +1457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -2163,6 +2163,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2172,7 +2284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3053,6 +3165,109 @@
     </xf>
     <xf numFmtId="178" fontId="5" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="67" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3733,18 +3948,18 @@
       <c r="P2" s="186"/>
       <c r="Q2" s="186"/>
       <c r="R2" s="187"/>
-      <c r="S2" s="90" t="str">
+      <c r="S2" s="280" t="str">
         <v>大学院環境生命自然科学研究科</v>
       </c>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="192"/>
-      <c r="AB2" s="193"/>
+      <c r="T2" s="296"/>
+      <c r="U2" s="296"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="296"/>
+      <c r="X2" s="296"/>
+      <c r="Y2" s="296"/>
+      <c r="Z2" s="296"/>
+      <c r="AA2" s="296"/>
+      <c r="AB2" s="297"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -3756,17 +3971,17 @@
       <c r="B3" s="203"/>
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="90" t="str">
+      <c r="E3" s="280" t="str">
         <v>内山 勝善</v>
       </c>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="207"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="285"/>
       <c r="N3" s="89"/>
       <c r="O3" s="185" t="s">
         <v>3</v>
@@ -3774,18 +3989,18 @@
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
-      <c r="S3" s="90" t="str">
+      <c r="S3" s="280" t="str">
         <v>43M21414</v>
       </c>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="196"/>
+      <c r="T3" s="287"/>
+      <c r="U3" s="287"/>
+      <c r="V3" s="287"/>
+      <c r="W3" s="287"/>
+      <c r="X3" s="287"/>
+      <c r="Y3" s="287"/>
+      <c r="Z3" s="287"/>
+      <c r="AA3" s="287"/>
+      <c r="AB3" s="288"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -3811,10 +4026,10 @@
       <c r="P4" s="198"/>
       <c r="Q4" s="198"/>
       <c r="R4" s="199"/>
-      <c r="S4" s="90" t="str">
+      <c r="S4" s="280" t="str">
         <v>1</v>
       </c>
-      <c r="T4" s="201"/>
+      <c r="T4" s="302"/>
       <c r="U4" s="92"/>
       <c r="V4" s="93"/>
       <c r="W4" s="93"/>
@@ -3876,18 +4091,18 @@
       <c r="P6" s="186"/>
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
-      <c r="S6" s="90" t="str">
-        <v xml:space="preserve">後藤  </v>
-      </c>
-      <c r="T6" s="224"/>
-      <c r="U6" s="224"/>
-      <c r="V6" s="224"/>
-      <c r="W6" s="224"/>
-      <c r="X6" s="224"/>
-      <c r="Y6" s="224"/>
-      <c r="Z6" s="224"/>
-      <c r="AA6" s="224"/>
-      <c r="AB6" s="225"/>
+      <c r="S6" s="280" t="str">
+        <v xml:space="preserve">後藤 後藤 </v>
+      </c>
+      <c r="T6" s="293"/>
+      <c r="U6" s="293"/>
+      <c r="V6" s="293"/>
+      <c r="W6" s="293"/>
+      <c r="X6" s="293"/>
+      <c r="Y6" s="293"/>
+      <c r="Z6" s="293"/>
+      <c r="AA6" s="293"/>
+      <c r="AB6" s="294"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -3913,16 +4128,18 @@
       <c r="P7" s="220"/>
       <c r="Q7" s="220"/>
       <c r="R7" s="221"/>
-      <c r="S7" s="222"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="219"/>
+      <c r="S7" s="280" t="str">
+        <v>門田</v>
+      </c>
+      <c r="T7" s="290"/>
+      <c r="U7" s="290"/>
+      <c r="V7" s="290"/>
+      <c r="W7" s="290"/>
+      <c r="X7" s="290"/>
+      <c r="Y7" s="290"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="290"/>
+      <c r="AB7" s="291"/>
     </row>
     <row r="8" spans="1:28" s="90" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="185" t="s">
@@ -3931,12 +4148,14 @@
       <c r="B8" s="186"/>
       <c r="C8" s="186"/>
       <c r="D8" s="187"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
+      <c r="E8" s="280" t="str">
+        <v>工学部（工）</v>
+      </c>
+      <c r="F8" s="293"/>
+      <c r="G8" s="293"/>
+      <c r="H8" s="293"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="294"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3967,14 +4186,14 @@
       <c r="B9" s="226"/>
       <c r="C9" s="226"/>
       <c r="D9" s="227"/>
-      <c r="E9" s="90" t="str">
+      <c r="E9" s="280" t="str">
         <v>TA</v>
       </c>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="190"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="299"/>
+      <c r="J9" s="300"/>
       <c r="K9" s="94"/>
       <c r="L9" s="94"/>
       <c r="M9" s="94"/>
@@ -4630,7 +4849,9 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
-      <c r="AA22" s="33"/>
+      <c r="AA22" s="303" t="str">
+        <v>5</v>
+      </c>
       <c r="AB22" s="38"/>
     </row>
     <row r="23" spans="1:28" customFormat="false" ht="15" customHeight="1">
@@ -4734,7 +4955,9 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
-      <c r="AA24" s="33"/>
+      <c r="AA24" s="303" t="str">
+        <v>1</v>
+      </c>
       <c r="AB24" s="157"/>
     </row>
     <row r="25" spans="1:28" customFormat="false" ht="15" customHeight="1">

--- a/public/excel/writed_form2.xlsx
+++ b/public/excel/writed_form2.xlsx
@@ -4849,10 +4849,10 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
-      <c r="AA22" s="303" t="str">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="38"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="303" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:28" customFormat="false" ht="15" customHeight="1">
       <c r="A23" s="55">
@@ -4955,9 +4955,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
-      <c r="AA24" s="303" t="str">
-        <v>1</v>
-      </c>
+      <c r="AA24" s="33"/>
       <c r="AB24" s="157"/>
     </row>
     <row r="25" spans="1:28" customFormat="false" ht="15" customHeight="1">
